--- a/商铺统计/商贸分配表.xlsx
+++ b/商铺统计/商贸分配表.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\97738\Desktop\call_me_DZG_judger_for_HuBiaoTasks\商铺统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A625357-B8BF-4BBA-B216-65394F5B5B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4790C721-0C8A-4897-9860-6767D74EA64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="18840" firstSheet="1" activeTab="1" xr2:uid="{97F572DF-8E6B-455B-BF35-332AD9DFAB78}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="2" xr2:uid="{97F572DF-8E6B-455B-BF35-332AD9DFAB78}"/>
   </bookViews>
   <sheets>
     <sheet name="商铺价值更新" sheetId="13" r:id="rId1"/>
     <sheet name="分配计算函数" sheetId="16" r:id="rId2"/>
+    <sheet name="商会据点战" sheetId="17" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">商铺价值更新!$B$20:$B$29</definedName>
@@ -112,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="123">
   <si>
     <t>酒坊</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -514,6 +515,182 @@
   </si>
   <si>
     <t>作为第三个格子放的战斗力总数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>如愿</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>清风掌柜商会</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚贤居</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>落花西元</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟雨阁</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑眉</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>随便</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>kim</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>摸鱼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>孤儿院</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘英废物</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江大富豪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>山海</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>红尘</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>铃儿响叮当</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>九天</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>风清扬</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>明伟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>一叶知秋</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小青龙</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>琴剑阁</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>星辰匪帮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>开商会容易吗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝颜水月</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>百年自豪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦之缘</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>指尖言语</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>锐泽</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一商会</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>花满楼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>一梦醉倾城</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>明教总队</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>如今排名</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前排名</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>总血量排名</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余血量排名</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余血量‘</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余百分比</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>总血（百万）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀血</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -600,7 +777,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -638,6 +815,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,7 +920,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -789,6 +972,9 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="标题 1" xfId="1" builtinId="16"/>
@@ -796,24 +982,16 @@
     <cellStyle name="输出" xfId="3" builtinId="21"/>
     <cellStyle name="输入" xfId="2" builtinId="20"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
+        <color rgb="FF9C0006"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -854,21 +1032,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -965,6 +1133,34 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3364,15 +3560,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8B399E73-77FB-489B-9994-FFC5A7366BB0}" name="表1" displayName="表1" ref="I29:N32" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8B399E73-77FB-489B-9994-FFC5A7366BB0}" name="表1" displayName="表1" ref="I29:N32" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="I29:N32" xr:uid="{8B399E73-77FB-489B-9994-FFC5A7366BB0}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{40F05231-F612-4244-B53E-C116F4505380}" name="信息                       关卡" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{49B63EAF-44B7-4735-99A3-610C3B249921}" name="一" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{C48AE6E3-DA56-4560-99BD-02092496A54F}" name="二" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{5F91C551-5E89-4E6B-8C01-CCE0BEE55498}" name="三" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{73776BE3-28E1-437F-A196-83FE212B6E2D}" name="加起来" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{F4BB6D3B-0BE0-4309-BAAC-CBD90BBCF2ED}" name="战斗力换算值" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{40F05231-F612-4244-B53E-C116F4505380}" name="信息                       关卡" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{49B63EAF-44B7-4735-99A3-610C3B249921}" name="一" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{C48AE6E3-DA56-4560-99BD-02092496A54F}" name="二" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{5F91C551-5E89-4E6B-8C01-CCE0BEE55498}" name="三" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{73776BE3-28E1-437F-A196-83FE212B6E2D}" name="加起来" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{F4BB6D3B-0BE0-4309-BAAC-CBD90BBCF2ED}" name="战斗力换算值" dataDxfId="4">
       <calculatedColumnFormula>G4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3381,7 +3577,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5D7FD0EE-2026-4581-9E57-A9CEAC7EBCC5}" name="表6" displayName="表6" ref="I49:N52" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5D7FD0EE-2026-4581-9E57-A9CEAC7EBCC5}" name="表6" displayName="表6" ref="I49:N52" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="I49:N52" xr:uid="{5D7FD0EE-2026-4581-9E57-A9CEAC7EBCC5}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{95419903-9C23-4227-AAD8-6E6F59A7FD2B}" name="信息                  关卡" dataDxfId="2"/>
@@ -3391,7 +3587,7 @@
     <tableColumn id="5" xr3:uid="{4E0EF9DE-3671-47CB-A1FE-63C39CBC943B}" name="加起来">
       <calculatedColumnFormula>SUM(J50:L50)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{06A3DB34-0B4E-4CBE-81D8-4EB82F1C8C0F}" name="战斗力换算值" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{06A3DB34-0B4E-4CBE-81D8-4EB82F1C8C0F}" name="战斗力换算值" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4684,7 +4880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB54C0A1-A921-4201-BE42-750A92CAEA9A}">
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
@@ -5446,4 +5642,1829 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA1605A-DD67-4E55-908B-90788882138A}">
+  <dimension ref="A1:L45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2">
+        <v>694.2</v>
+      </c>
+      <c r="C2">
+        <v>0.06</v>
+      </c>
+      <c r="D2">
+        <f>B2/C2</f>
+        <v>11570.000000000002</v>
+      </c>
+      <c r="E2">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>48</v>
+      </c>
+      <c r="G2">
+        <v>98.93</v>
+      </c>
+      <c r="H2">
+        <f>D2*G2/100</f>
+        <v>11446.201000000003</v>
+      </c>
+      <c r="I2">
+        <f>RANK(H2,H$2:H$33)</f>
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <f>RANK(D2,D$2:D$33)</f>
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3">
+        <v>584.29999999999995</v>
+      </c>
+      <c r="C3">
+        <v>0.08</v>
+      </c>
+      <c r="D3">
+        <f>B3/C3</f>
+        <v>7303.7499999999991</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>41</v>
+      </c>
+      <c r="G3">
+        <v>97.9</v>
+      </c>
+      <c r="H3">
+        <f>D3*G3/100</f>
+        <v>7150.3712500000001</v>
+      </c>
+      <c r="I3">
+        <f>RANK(H3,H$2:H$33)</f>
+        <v>6</v>
+      </c>
+      <c r="J3">
+        <f>RANK(D3,D$2:D$33)</f>
+        <v>6</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4">
+        <v>1449</v>
+      </c>
+      <c r="C4">
+        <v>0.09</v>
+      </c>
+      <c r="D4">
+        <f>B4/C4</f>
+        <v>16100</v>
+      </c>
+      <c r="E4">
+        <v>23</v>
+      </c>
+      <c r="F4">
+        <v>49</v>
+      </c>
+      <c r="G4">
+        <v>97.58</v>
+      </c>
+      <c r="H4">
+        <f>D4*G4/100</f>
+        <v>15710.38</v>
+      </c>
+      <c r="I4">
+        <f>RANK(H4,H$2:H$33)</f>
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <f>RANK(D4,D$2:D$33)</f>
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5">
+        <v>654.70000000000005</v>
+      </c>
+      <c r="C5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D5">
+        <f>B5/C5</f>
+        <v>9352.8571428571431</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>48</v>
+      </c>
+      <c r="G5">
+        <v>97.86</v>
+      </c>
+      <c r="H5">
+        <f>D5*G5/100</f>
+        <v>9152.7060000000001</v>
+      </c>
+      <c r="I5">
+        <f>RANK(H5,H$2:H$33)</f>
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <f>RANK(D5,D$2:D$33)</f>
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6">
+        <v>1025</v>
+      </c>
+      <c r="C6">
+        <v>0.12</v>
+      </c>
+      <c r="D6">
+        <f>B6/C6</f>
+        <v>8541.6666666666679</v>
+      </c>
+      <c r="E6">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>26</v>
+      </c>
+      <c r="G6">
+        <v>92.86</v>
+      </c>
+      <c r="H6">
+        <f>D6*G6/100</f>
+        <v>7931.7916666666679</v>
+      </c>
+      <c r="I6">
+        <f>RANK(H6,H$2:H$33)</f>
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <f>RANK(D6,D$2:D$33)</f>
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7">
+        <v>2083</v>
+      </c>
+      <c r="C7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D7">
+        <f>B7/C7</f>
+        <v>14878.571428571428</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>49</v>
+      </c>
+      <c r="G7">
+        <v>98.48</v>
+      </c>
+      <c r="H7">
+        <f>D7*G7/100</f>
+        <v>14652.417142857143</v>
+      </c>
+      <c r="I7">
+        <f>RANK(H7,H$2:H$33)</f>
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <f>RANK(D7,D$2:D$33)</f>
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="L7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8">
+        <v>829.2</v>
+      </c>
+      <c r="C8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D8">
+        <f>B8/C8</f>
+        <v>5922.8571428571422</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>26</v>
+      </c>
+      <c r="G8">
+        <v>94.25</v>
+      </c>
+      <c r="H8">
+        <f>D8*G8/100</f>
+        <v>5582.2928571428565</v>
+      </c>
+      <c r="I8">
+        <f>RANK(H8,H$2:H$33)</f>
+        <v>8</v>
+      </c>
+      <c r="J8">
+        <f>RANK(D8,D$2:D$33)</f>
+        <v>8</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
+      </c>
+      <c r="L8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9">
+        <v>615.4</v>
+      </c>
+      <c r="C9">
+        <v>0.09</v>
+      </c>
+      <c r="D9">
+        <f>B9/C9</f>
+        <v>6837.7777777777774</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>41</v>
+      </c>
+      <c r="G9">
+        <v>99.42</v>
+      </c>
+      <c r="H9">
+        <f>D9*G9/100</f>
+        <v>6798.1186666666654</v>
+      </c>
+      <c r="I9">
+        <f>RANK(H9,H$2:H$33)</f>
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <f>RANK(D9,D$2:D$33)</f>
+        <v>7</v>
+      </c>
+      <c r="K9">
+        <v>9</v>
+      </c>
+      <c r="L9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10">
+        <v>1567</v>
+      </c>
+      <c r="C10">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D10">
+        <f>B10/C10</f>
+        <v>5596.4285714285706</v>
+      </c>
+      <c r="E10">
+        <v>24</v>
+      </c>
+      <c r="F10">
+        <v>41</v>
+      </c>
+      <c r="G10">
+        <v>93.79</v>
+      </c>
+      <c r="H10">
+        <f>D10*G10/100</f>
+        <v>5248.8903571428564</v>
+      </c>
+      <c r="I10">
+        <f>RANK(H10,H$2:H$33)</f>
+        <v>9</v>
+      </c>
+      <c r="J10">
+        <f>RANK(D10,D$2:D$33)</f>
+        <v>9</v>
+      </c>
+      <c r="K10">
+        <v>8</v>
+      </c>
+      <c r="L10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11">
+        <v>1567</v>
+      </c>
+      <c r="C11">
+        <v>0.49</v>
+      </c>
+      <c r="D11">
+        <f>B11/C11</f>
+        <v>3197.9591836734694</v>
+      </c>
+      <c r="E11">
+        <v>29</v>
+      </c>
+      <c r="F11">
+        <v>26</v>
+      </c>
+      <c r="G11">
+        <v>91.99</v>
+      </c>
+      <c r="H11">
+        <f>D11*G11/100</f>
+        <v>2941.8026530612242</v>
+      </c>
+      <c r="I11">
+        <f>RANK(H11,H$2:H$33)</f>
+        <v>11</v>
+      </c>
+      <c r="J11">
+        <f>RANK(D11,D$2:D$33)</f>
+        <v>11</v>
+      </c>
+      <c r="K11">
+        <v>11</v>
+      </c>
+      <c r="L11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12">
+        <v>3576</v>
+      </c>
+      <c r="C12">
+        <v>0.97</v>
+      </c>
+      <c r="D12">
+        <f>B12/C12</f>
+        <v>3686.5979381443299</v>
+      </c>
+      <c r="E12">
+        <v>21</v>
+      </c>
+      <c r="F12">
+        <v>49</v>
+      </c>
+      <c r="G12">
+        <v>91.06</v>
+      </c>
+      <c r="H12">
+        <f>D12*G12/100</f>
+        <v>3357.0160824742266</v>
+      </c>
+      <c r="I12">
+        <f>RANK(H12,H$2:H$33)</f>
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <f>RANK(D12,D$2:D$33)</f>
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
+      <c r="L12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13">
+        <v>2838</v>
+      </c>
+      <c r="C13">
+        <v>0.99</v>
+      </c>
+      <c r="D13">
+        <f>B13/C13</f>
+        <v>2866.6666666666665</v>
+      </c>
+      <c r="E13">
+        <v>28</v>
+      </c>
+      <c r="F13">
+        <v>49</v>
+      </c>
+      <c r="G13">
+        <v>90.67</v>
+      </c>
+      <c r="H13">
+        <f>D13*G13/100</f>
+        <v>2599.2066666666665</v>
+      </c>
+      <c r="I13">
+        <f>RANK(H13,H$2:H$33)</f>
+        <v>12</v>
+      </c>
+      <c r="J13">
+        <f>RANK(D13,D$2:D$33)</f>
+        <v>12</v>
+      </c>
+      <c r="K13">
+        <v>12</v>
+      </c>
+      <c r="L13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14">
+        <v>2397</v>
+      </c>
+      <c r="C14">
+        <v>1.63</v>
+      </c>
+      <c r="D14">
+        <f>B14/C14</f>
+        <v>1470.5521472392638</v>
+      </c>
+      <c r="E14">
+        <v>15</v>
+      </c>
+      <c r="F14">
+        <v>48</v>
+      </c>
+      <c r="G14">
+        <v>85.72</v>
+      </c>
+      <c r="H14">
+        <f>D14*G14/100</f>
+        <v>1260.5573006134969</v>
+      </c>
+      <c r="I14">
+        <f>RANK(H14,H$2:H$33)</f>
+        <v>19</v>
+      </c>
+      <c r="J14">
+        <f>RANK(D14,D$2:D$33)</f>
+        <v>26</v>
+      </c>
+      <c r="K14">
+        <v>13</v>
+      </c>
+      <c r="L14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15">
+        <v>2220</v>
+      </c>
+      <c r="C15">
+        <v>0.86</v>
+      </c>
+      <c r="D15">
+        <f>B15/C15</f>
+        <v>2581.3953488372094</v>
+      </c>
+      <c r="E15">
+        <v>17</v>
+      </c>
+      <c r="F15">
+        <v>48</v>
+      </c>
+      <c r="G15">
+        <v>78.22</v>
+      </c>
+      <c r="H15">
+        <f>D15*G15/100</f>
+        <v>2019.1674418604653</v>
+      </c>
+      <c r="I15">
+        <f>RANK(H15,H$2:H$33)</f>
+        <v>14</v>
+      </c>
+      <c r="J15">
+        <f>RANK(D15,D$2:D$33)</f>
+        <v>14</v>
+      </c>
+      <c r="K15">
+        <v>14</v>
+      </c>
+      <c r="L15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16">
+        <f>689.9+41.94</f>
+        <v>731.83999999999992</v>
+      </c>
+      <c r="C16">
+        <v>0.41</v>
+      </c>
+      <c r="D16">
+        <f>B16/C16</f>
+        <v>1784.9756097560974</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <v>48</v>
+      </c>
+      <c r="G16">
+        <v>76.760000000000005</v>
+      </c>
+      <c r="H16">
+        <f>D16*G16/100</f>
+        <v>1370.1472780487802</v>
+      </c>
+      <c r="I16">
+        <f>RANK(H16,H$2:H$33)</f>
+        <v>16</v>
+      </c>
+      <c r="J16">
+        <f>RANK(D16,D$2:D$33)</f>
+        <v>22</v>
+      </c>
+      <c r="K16">
+        <v>15</v>
+      </c>
+      <c r="L16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17">
+        <v>1153</v>
+      </c>
+      <c r="C17">
+        <v>0.66</v>
+      </c>
+      <c r="D17">
+        <f>B17/C17</f>
+        <v>1746.969696969697</v>
+      </c>
+      <c r="E17">
+        <v>18</v>
+      </c>
+      <c r="F17">
+        <v>49</v>
+      </c>
+      <c r="G17">
+        <v>90.44</v>
+      </c>
+      <c r="H17">
+        <f>D17*G17/100</f>
+        <v>1579.959393939394</v>
+      </c>
+      <c r="I17">
+        <f>RANK(H17,H$2:H$33)</f>
+        <v>15</v>
+      </c>
+      <c r="J17">
+        <f>RANK(D17,D$2:D$33)</f>
+        <v>23</v>
+      </c>
+      <c r="K17">
+        <v>24</v>
+      </c>
+      <c r="L17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18">
+        <v>1024</v>
+      </c>
+      <c r="C18">
+        <v>0.49</v>
+      </c>
+      <c r="D18">
+        <f>B18/C18</f>
+        <v>2089.795918367347</v>
+      </c>
+      <c r="E18">
+        <v>27</v>
+      </c>
+      <c r="F18">
+        <v>49</v>
+      </c>
+      <c r="G18">
+        <v>30.96</v>
+      </c>
+      <c r="H18">
+        <f>D18*G18/100</f>
+        <v>647.00081632653064</v>
+      </c>
+      <c r="I18">
+        <f>RANK(H18,H$2:H$33)</f>
+        <v>21</v>
+      </c>
+      <c r="J18">
+        <f>RANK(D18,D$2:D$33)</f>
+        <v>20</v>
+      </c>
+      <c r="K18">
+        <v>17</v>
+      </c>
+      <c r="L18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19">
+        <v>3548</v>
+      </c>
+      <c r="C19">
+        <v>1.41</v>
+      </c>
+      <c r="D19">
+        <f>B19/C19</f>
+        <v>2516.3120567375886</v>
+      </c>
+      <c r="E19">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>41</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f>D19*G19/100</f>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f>RANK(H19,H$2:H$33)</f>
+        <v>23</v>
+      </c>
+      <c r="J19">
+        <f>RANK(D19,D$2:D$33)</f>
+        <v>15</v>
+      </c>
+      <c r="K19">
+        <v>18</v>
+      </c>
+      <c r="L19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20">
+        <v>379</v>
+      </c>
+      <c r="C20">
+        <v>0.25</v>
+      </c>
+      <c r="D20">
+        <f>B20/C20</f>
+        <v>1516</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>49</v>
+      </c>
+      <c r="G20">
+        <v>86.4</v>
+      </c>
+      <c r="H20">
+        <f>D20*G20/100</f>
+        <v>1309.8240000000001</v>
+      </c>
+      <c r="I20">
+        <f>RANK(H20,H$2:H$33)</f>
+        <v>18</v>
+      </c>
+      <c r="J20">
+        <f>RANK(D20,D$2:D$33)</f>
+        <v>25</v>
+      </c>
+      <c r="K20">
+        <v>19</v>
+      </c>
+      <c r="L20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21">
+        <v>2396</v>
+      </c>
+      <c r="C21">
+        <v>0.9</v>
+      </c>
+      <c r="D21">
+        <f>B21/C21</f>
+        <v>2662.2222222222222</v>
+      </c>
+      <c r="E21">
+        <v>32</v>
+      </c>
+      <c r="F21">
+        <v>26</v>
+      </c>
+      <c r="G21">
+        <v>50.32</v>
+      </c>
+      <c r="H21">
+        <f>D21*G21/100</f>
+        <v>1339.6302222222221</v>
+      </c>
+      <c r="I21">
+        <f>RANK(H21,H$2:H$33)</f>
+        <v>17</v>
+      </c>
+      <c r="J21">
+        <f>RANK(D21,D$2:D$33)</f>
+        <v>13</v>
+      </c>
+      <c r="K21">
+        <v>20</v>
+      </c>
+      <c r="L21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22">
+        <v>2635</v>
+      </c>
+      <c r="C22">
+        <v>1.83</v>
+      </c>
+      <c r="D22">
+        <f>B22/C22</f>
+        <v>1439.8907103825136</v>
+      </c>
+      <c r="E22">
+        <v>25</v>
+      </c>
+      <c r="F22">
+        <v>48</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f>D22*G22/100</f>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f>RANK(H22,H$2:H$33)</f>
+        <v>23</v>
+      </c>
+      <c r="J22">
+        <f>RANK(D22,D$2:D$33)</f>
+        <v>27</v>
+      </c>
+      <c r="K22">
+        <v>21</v>
+      </c>
+      <c r="L22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23">
+        <v>2051</v>
+      </c>
+      <c r="C23">
+        <v>1.43</v>
+      </c>
+      <c r="D23">
+        <f>B23/C23</f>
+        <v>1434.2657342657344</v>
+      </c>
+      <c r="E23">
+        <v>22</v>
+      </c>
+      <c r="F23">
+        <v>48</v>
+      </c>
+      <c r="G23">
+        <v>77.63</v>
+      </c>
+      <c r="H23">
+        <f>D23*G23/100</f>
+        <v>1113.4204895104895</v>
+      </c>
+      <c r="I23">
+        <f>RANK(H23,H$2:H$33)</f>
+        <v>20</v>
+      </c>
+      <c r="J23">
+        <f>RANK(D23,D$2:D$33)</f>
+        <v>28</v>
+      </c>
+      <c r="K23">
+        <v>22</v>
+      </c>
+      <c r="L23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24">
+        <f>1056+118.5</f>
+        <v>1174.5</v>
+      </c>
+      <c r="C24">
+        <v>0.51</v>
+      </c>
+      <c r="D24">
+        <f>B24/C24</f>
+        <v>2302.9411764705883</v>
+      </c>
+      <c r="E24">
+        <v>12</v>
+      </c>
+      <c r="F24">
+        <v>49</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f>D24*G24/100</f>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f>RANK(H24,H$2:H$33)</f>
+        <v>23</v>
+      </c>
+      <c r="J24">
+        <f>RANK(D24,D$2:D$33)</f>
+        <v>17</v>
+      </c>
+      <c r="K24">
+        <v>23</v>
+      </c>
+      <c r="L24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25">
+        <v>1409</v>
+      </c>
+      <c r="C25">
+        <v>1.34</v>
+      </c>
+      <c r="D25">
+        <f>B25/C25</f>
+        <v>1051.4925373134329</v>
+      </c>
+      <c r="E25">
+        <v>19</v>
+      </c>
+      <c r="F25">
+        <v>48</v>
+      </c>
+      <c r="G25">
+        <v>41.81</v>
+      </c>
+      <c r="H25">
+        <f>D25*G25/100</f>
+        <v>439.62902985074629</v>
+      </c>
+      <c r="I25">
+        <f>RANK(H25,H$2:H$33)</f>
+        <v>22</v>
+      </c>
+      <c r="J25">
+        <f>RANK(D25,D$2:D$33)</f>
+        <v>31</v>
+      </c>
+      <c r="K25">
+        <v>25</v>
+      </c>
+      <c r="L25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26">
+        <v>836.6</v>
+      </c>
+      <c r="C26">
+        <v>0.51</v>
+      </c>
+      <c r="D26">
+        <f>B26/C26</f>
+        <v>1640.3921568627452</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26">
+        <v>49</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f>D26*G26/100</f>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f>RANK(H26,H$2:H$33)</f>
+        <v>23</v>
+      </c>
+      <c r="J26">
+        <f>RANK(D26,D$2:D$33)</f>
+        <v>24</v>
+      </c>
+      <c r="K26">
+        <v>26</v>
+      </c>
+      <c r="L26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27">
+        <v>2788</v>
+      </c>
+      <c r="C27">
+        <v>2.68</v>
+      </c>
+      <c r="D27">
+        <f>B27/C27</f>
+        <v>1040.2985074626865</v>
+      </c>
+      <c r="E27">
+        <v>14</v>
+      </c>
+      <c r="F27">
+        <v>49</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f>D27*G27/100</f>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f>RANK(H27,H$2:H$33)</f>
+        <v>23</v>
+      </c>
+      <c r="J27">
+        <f>RANK(D27,D$2:D$33)</f>
+        <v>32</v>
+      </c>
+      <c r="K27">
+        <v>27</v>
+      </c>
+      <c r="L27">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28">
+        <v>1444</v>
+      </c>
+      <c r="C28">
+        <v>0.63</v>
+      </c>
+      <c r="D28">
+        <f>B28/C28</f>
+        <v>2292.063492063492</v>
+      </c>
+      <c r="E28">
+        <v>13</v>
+      </c>
+      <c r="F28">
+        <v>26</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f>D28*G28/100</f>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f>RANK(H28,H$2:H$33)</f>
+        <v>23</v>
+      </c>
+      <c r="J28">
+        <f>RANK(D28,D$2:D$33)</f>
+        <v>18</v>
+      </c>
+      <c r="K28">
+        <v>28</v>
+      </c>
+      <c r="L28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29">
+        <v>3598</v>
+      </c>
+      <c r="C29">
+        <v>3.03</v>
+      </c>
+      <c r="D29">
+        <f>B29/C29</f>
+        <v>1187.4587458745875</v>
+      </c>
+      <c r="E29">
+        <v>26</v>
+      </c>
+      <c r="F29">
+        <v>26</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f>D29*G29/100</f>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f>RANK(H29,H$2:H$33)</f>
+        <v>23</v>
+      </c>
+      <c r="J29">
+        <f>RANK(D29,D$2:D$33)</f>
+        <v>29</v>
+      </c>
+      <c r="K29">
+        <v>29</v>
+      </c>
+      <c r="L29">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30">
+        <v>3152</v>
+      </c>
+      <c r="C30">
+        <v>1.71</v>
+      </c>
+      <c r="D30">
+        <f>B30/C30</f>
+        <v>1843.2748538011697</v>
+      </c>
+      <c r="E30">
+        <v>31</v>
+      </c>
+      <c r="F30">
+        <v>41</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f>D30*G30/100</f>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f>RANK(H30,H$2:H$33)</f>
+        <v>23</v>
+      </c>
+      <c r="J30">
+        <f>RANK(D30,D$2:D$33)</f>
+        <v>21</v>
+      </c>
+      <c r="K30">
+        <v>30</v>
+      </c>
+      <c r="L30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31">
+        <v>5072</v>
+      </c>
+      <c r="C31">
+        <v>2.4</v>
+      </c>
+      <c r="D31">
+        <f>B31/C31</f>
+        <v>2113.3333333333335</v>
+      </c>
+      <c r="E31">
+        <v>16</v>
+      </c>
+      <c r="F31">
+        <v>48</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f>D31*G31/100</f>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f>RANK(H31,H$2:H$33)</f>
+        <v>23</v>
+      </c>
+      <c r="J31">
+        <f>RANK(D31,D$2:D$33)</f>
+        <v>19</v>
+      </c>
+      <c r="K31">
+        <v>31</v>
+      </c>
+      <c r="L31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32">
+        <v>140.80000000000001</v>
+      </c>
+      <c r="C32">
+        <v>0.12</v>
+      </c>
+      <c r="D32">
+        <f>B32/C32</f>
+        <v>1173.3333333333335</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>26</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f>D32*G32/100</f>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f>RANK(H32,H$2:H$33)</f>
+        <v>23</v>
+      </c>
+      <c r="J32">
+        <f>RANK(D32,D$2:D$33)</f>
+        <v>30</v>
+      </c>
+      <c r="K32">
+        <v>32</v>
+      </c>
+      <c r="L32">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33">
+        <v>798.3</v>
+      </c>
+      <c r="C33">
+        <v>0.33</v>
+      </c>
+      <c r="D33">
+        <f>B33/C33</f>
+        <v>2419.090909090909</v>
+      </c>
+      <c r="E33">
+        <v>10</v>
+      </c>
+      <c r="F33">
+        <v>48</v>
+      </c>
+      <c r="G33">
+        <v>95.39</v>
+      </c>
+      <c r="H33">
+        <f>D33*G33/100</f>
+        <v>2307.5708181818181</v>
+      </c>
+      <c r="I33">
+        <f>RANK(H33,H$2:H$33)</f>
+        <v>13</v>
+      </c>
+      <c r="J33">
+        <f>RANK(D33,D$2:D$33)</f>
+        <v>16</v>
+      </c>
+      <c r="K33">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38">
+        <v>2838</v>
+      </c>
+      <c r="C38">
+        <v>0.99</v>
+      </c>
+      <c r="D38">
+        <f>B38/C38</f>
+        <v>2866.6666666666665</v>
+      </c>
+      <c r="E38">
+        <v>28</v>
+      </c>
+      <c r="F38">
+        <v>49</v>
+      </c>
+      <c r="G38">
+        <v>90.67</v>
+      </c>
+      <c r="H38">
+        <f>D38*G38/100</f>
+        <v>2599.2066666666665</v>
+      </c>
+      <c r="I38">
+        <f>RANK(H38,H$2:H$33)</f>
+        <v>12</v>
+      </c>
+      <c r="J38">
+        <f>RANK(D38,D$2:D$33)</f>
+        <v>12</v>
+      </c>
+      <c r="K38">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39">
+        <v>2397</v>
+      </c>
+      <c r="C39">
+        <v>1.63</v>
+      </c>
+      <c r="D39">
+        <f>B39/C39</f>
+        <v>1470.5521472392638</v>
+      </c>
+      <c r="E39">
+        <v>15</v>
+      </c>
+      <c r="F39">
+        <v>48</v>
+      </c>
+      <c r="G39">
+        <v>85.72</v>
+      </c>
+      <c r="H39">
+        <f>D39*G39/100</f>
+        <v>1260.5573006134969</v>
+      </c>
+      <c r="I39">
+        <f>RANK(H39,H$2:H$33)</f>
+        <v>19</v>
+      </c>
+      <c r="J39">
+        <f>RANK(D39,D$2:D$33)</f>
+        <v>26</v>
+      </c>
+      <c r="K39">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40">
+        <v>2220</v>
+      </c>
+      <c r="C40">
+        <v>0.86</v>
+      </c>
+      <c r="D40">
+        <f>B40/C40</f>
+        <v>2581.3953488372094</v>
+      </c>
+      <c r="E40">
+        <v>17</v>
+      </c>
+      <c r="F40">
+        <v>48</v>
+      </c>
+      <c r="G40">
+        <v>78.22</v>
+      </c>
+      <c r="H40">
+        <f>D40*G40/100</f>
+        <v>2019.1674418604653</v>
+      </c>
+      <c r="I40">
+        <f>RANK(H40,H$2:H$33)</f>
+        <v>14</v>
+      </c>
+      <c r="J40">
+        <f>RANK(D40,D$2:D$33)</f>
+        <v>14</v>
+      </c>
+      <c r="K40">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41">
+        <f>689.9+41.94</f>
+        <v>731.83999999999992</v>
+      </c>
+      <c r="C41">
+        <v>0.41</v>
+      </c>
+      <c r="D41">
+        <f>B41/C41</f>
+        <v>1784.9756097560974</v>
+      </c>
+      <c r="E41">
+        <v>6</v>
+      </c>
+      <c r="F41">
+        <v>48</v>
+      </c>
+      <c r="G41">
+        <v>76.760000000000005</v>
+      </c>
+      <c r="H41">
+        <f>D41*G41/100</f>
+        <v>1370.1472780487802</v>
+      </c>
+      <c r="I41">
+        <f>RANK(H41,H$2:H$33)</f>
+        <v>16</v>
+      </c>
+      <c r="J41">
+        <f>RANK(D41,D$2:D$33)</f>
+        <v>22</v>
+      </c>
+      <c r="K41">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42">
+        <v>798.3</v>
+      </c>
+      <c r="C42">
+        <v>0.33</v>
+      </c>
+      <c r="D42">
+        <f>B42/C42</f>
+        <v>2419.090909090909</v>
+      </c>
+      <c r="E42">
+        <v>10</v>
+      </c>
+      <c r="F42">
+        <v>48</v>
+      </c>
+      <c r="G42">
+        <v>95.39</v>
+      </c>
+      <c r="H42">
+        <f>D42*G42/100</f>
+        <v>2307.5708181818181</v>
+      </c>
+      <c r="I42">
+        <f>RANK(H42,H$2:H$33)</f>
+        <v>13</v>
+      </c>
+      <c r="J42">
+        <f>RANK(D42,D$2:D$33)</f>
+        <v>16</v>
+      </c>
+      <c r="K42">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43">
+        <v>1024</v>
+      </c>
+      <c r="C43">
+        <v>0.49</v>
+      </c>
+      <c r="D43">
+        <f>B43/C43</f>
+        <v>2089.795918367347</v>
+      </c>
+      <c r="E43">
+        <v>27</v>
+      </c>
+      <c r="F43">
+        <v>49</v>
+      </c>
+      <c r="G43">
+        <v>30.96</v>
+      </c>
+      <c r="H43">
+        <f>D43*G43/100</f>
+        <v>647.00081632653064</v>
+      </c>
+      <c r="I43">
+        <f>RANK(H43,H$2:H$33)</f>
+        <v>21</v>
+      </c>
+      <c r="J43">
+        <f>RANK(D43,D$2:D$33)</f>
+        <v>20</v>
+      </c>
+      <c r="K43">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44">
+        <v>3548</v>
+      </c>
+      <c r="C44">
+        <v>1.41</v>
+      </c>
+      <c r="D44">
+        <f>B44/C44</f>
+        <v>2516.3120567375886</v>
+      </c>
+      <c r="E44">
+        <v>7</v>
+      </c>
+      <c r="F44">
+        <v>41</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <f>D44*G44/100</f>
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <f>RANK(H44,H$2:H$33)</f>
+        <v>23</v>
+      </c>
+      <c r="J44">
+        <f>RANK(D44,D$2:D$33)</f>
+        <v>15</v>
+      </c>
+      <c r="K44">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45">
+        <v>379</v>
+      </c>
+      <c r="C45">
+        <v>0.25</v>
+      </c>
+      <c r="D45">
+        <f>B45/C45</f>
+        <v>1516</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="F45">
+        <v>49</v>
+      </c>
+      <c r="G45">
+        <v>86.4</v>
+      </c>
+      <c r="H45">
+        <f>D45*G45/100</f>
+        <v>1309.8240000000001</v>
+      </c>
+      <c r="I45">
+        <f>RANK(H45,H$2:H$33)</f>
+        <v>18</v>
+      </c>
+      <c r="J45">
+        <f>RANK(D45,D$2:D$33)</f>
+        <v>25</v>
+      </c>
+      <c r="K45">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="J1:K33 F1:G33 H1:I1 J38:K45 F35:G1048576 L1">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:G33">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CB08F95F-E87C-4599-98B3-F4E5A52FCA53}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I33">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38:G45">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38:I45">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CB08F95F-E87C-4599-98B3-F4E5A52FCA53}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H1:H1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>